--- a/data/Pichilemu.xlsx
+++ b/data/Pichilemu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Declaración de impacto ambiental vivienda Pichilemu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>José Ignacio Rodríguez Meléndez</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156702550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Embalse Nilahue</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5500</v>
+        <v>200</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>04/06/2010</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4631471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Embalse Nilahue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>5500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>04/06/2010</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4631471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento aguas servidas de Pichilemu (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6000</v>
+        <v>10</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Planta de Tratamiento aguas servidas de Pichilemu (e-seia)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>300</v>
+        <v>6000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>17/08/2007</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,21 +1019,21 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,40 +1144,40 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas Emisario Submarino de Pichilemu</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4824</v>
+        <v>200</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12/07/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1579395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,40 +1192,40 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas Emisario Submarino de Pichilemu</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>500</v>
+        <v>4824</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>12/07/2006</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1579395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGULADOR INTERCOMUNAL BORDE COSTERO (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>30/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1138558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Emisario Submarino Pichilemu (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGULADOR INTERCOMUNAL BORDE COSTERO (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4730</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>09/11/2005</t>
+          <t>30/11/2005</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1100530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1138558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Emisario Submarino Pichilemu (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>80</v>
+        <v>4730</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>09/11/2005</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1100530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR INTERCOMUNAL BORDE COSTERO (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>29/12/2004</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=553470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Proyecto Relleno Sanitario El Manzano (e-seia)</t>
+          <t>PLAN REGULADOR INTERCOMUNAL BORDE COSTERO (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Mariano Antonio Fuenzalida Caceres</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>04/03/2004</t>
+          <t>29/12/2004</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=286324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=553470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Proyecto Relleno Sanitario El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Mariano Antonio Fuenzalida Caceres</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>04/03/2004</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=286324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Manual Las Quilas (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Luis Hernán Pavez Vargas</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>21/11/2002</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Pichilemu (e-seia)</t>
+          <t>Relleno Sanitario Manual Las Quilas (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,11 +1879,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pichilemu</t>
+          <t>Luis Hernán Pavez Vargas</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Plan Regulador Comunal de Pichilemu (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ilustre Municipalidad de Pichilemu</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>21/11/2002</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,43 +1960,91 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>Transporte de Residuos Industriales</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ECOSUR S.A.</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>200</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>25/09/2001</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Pichilemu</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>Salinas de Mar</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Inmobiliaria Cáhuil S.A.</t>
         </is>
       </c>
-      <c r="F34" t="n">
+      <c r="F35" t="n">
         <v>12500</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>01/04/1999</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1865&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>Pichilemu</t>
         </is>

--- a/data/Pichilemu.xlsx
+++ b/data/Pichilemu.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Pichilemu.xlsx
+++ b/data/Pichilemu.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>23/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
